--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/NEW_YORK_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/NEW_YORK_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1490"/>
+  <dimension ref="A1:D1484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C22">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C23">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C26">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C37">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C59">
@@ -1226,7 +1226,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C65">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C69">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C70">
@@ -1673,7 +1673,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C99">
@@ -1891,7 +1891,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C119">
@@ -2200,7 +2200,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C138">
@@ -2317,12 +2317,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C147">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C150">
@@ -2374,7 +2374,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C151">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C157">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C164">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C169">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C175">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C180">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C181">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C192">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C204">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C205">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C207">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C217">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C229">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C234">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C235">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C236">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C237">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C248">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C254">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C258">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C267">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C268">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C270">
@@ -3939,7 +3939,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C271">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C272">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C276">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C280">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C283">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C284">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C288">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C289">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C292">
@@ -4237,7 +4237,7 @@
         <v>31</v>
       </c>
       <c r="D293">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="294">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C295">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C298">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C304">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C308">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C309">
@@ -4510,13 +4510,13 @@
         <v>304</v>
       </c>
       <c r="D314">
-        <v>0.009071648115544151</v>
+        <v>0.009071648115544152</v>
       </c>
     </row>
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C316">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C318">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C319">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C321">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C324">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C337">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C339">
@@ -4854,14 +4854,14 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C341">
         <v>31</v>
       </c>
       <c r="D341">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="342">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C343">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C347">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C348">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C360">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C366">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C372">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C376">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C380">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C383">
@@ -5470,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C388">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C389">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C390">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C391">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C392">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C394">
@@ -5561,14 +5561,14 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C395">
         <v>31</v>
       </c>
       <c r="D395">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="396">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C398">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C403">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C407">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C409">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C410">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C413">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C421">
@@ -5912,20 +5912,20 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C422">
         <v>31</v>
       </c>
       <c r="D422">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C423">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C425">
@@ -5964,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C426">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C433">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C434">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C443">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C445">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C447">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C450">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C453">
@@ -6411,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C460">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C461">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C463">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C464">
@@ -6476,7 +6476,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C465">
@@ -6515,7 +6515,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C468">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C469">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C470">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C471">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C474">
@@ -7591,7 +7591,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C550">
@@ -7682,7 +7682,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C557">
@@ -7734,7 +7734,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C561">
@@ -7812,7 +7812,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C567">
@@ -7838,7 +7838,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C569">
@@ -7942,7 +7942,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C577">
@@ -8121,7 +8121,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C590">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C593">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C600">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C605">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C606">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C608">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C610">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C613">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C614">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C616">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C617">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C618">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C619">
@@ -8516,7 +8516,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C620">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C622">
@@ -8555,7 +8555,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C623">
@@ -8568,7 +8568,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C624">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C637">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C638">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C641">
@@ -8828,7 +8828,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C644">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C645">
@@ -8854,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C646">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C647">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C649">
@@ -9075,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C663">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C665">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C668">
@@ -9309,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C681">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C685">
@@ -9543,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C699">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C706">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C715">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C749">
@@ -10284,7 +10284,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C756">
@@ -10466,7 +10466,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C770">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C772">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C791">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C796">
@@ -11064,7 +11064,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C816">
@@ -11077,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C817">
@@ -11220,7 +11220,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C828">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C839">
@@ -11415,7 +11415,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C843">
@@ -11480,7 +11480,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C848">
@@ -11662,7 +11662,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C862">
@@ -12234,7 +12234,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C906">
@@ -12468,7 +12468,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C924">
@@ -12481,7 +12481,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C925">
@@ -12494,7 +12494,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C926">
@@ -12507,7 +12507,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C927">
@@ -12520,7 +12520,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C928">
@@ -12546,7 +12546,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C930">
@@ -12559,7 +12559,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C931">
@@ -12585,7 +12585,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C933">
@@ -12598,7 +12598,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C934">
@@ -12637,7 +12637,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C937">
@@ -12650,7 +12650,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C938">
@@ -12663,7 +12663,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C939">
@@ -12676,7 +12676,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C940">
@@ -12689,7 +12689,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C941">
@@ -12702,7 +12702,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C942">
@@ -12728,7 +12728,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C944">
@@ -13071,7 +13071,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C970">
@@ -13123,7 +13123,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C974">
@@ -13266,7 +13266,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C985">
@@ -13448,7 +13448,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C999">
@@ -13461,7 +13461,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1000">
@@ -13669,7 +13669,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1016">
@@ -13682,7 +13682,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1017">
@@ -13747,7 +13747,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1022">
@@ -13773,7 +13773,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1024">
@@ -13825,7 +13825,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1028">
@@ -13968,7 +13968,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1039">
@@ -13981,7 +13981,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1040">
@@ -14150,7 +14150,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1053">
@@ -14280,7 +14280,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1063">
@@ -14488,7 +14488,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1079">
@@ -14540,7 +14540,7 @@
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1083">
@@ -14553,7 +14553,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1084">
@@ -14670,7 +14670,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1093">
@@ -14774,7 +14774,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1101">
@@ -14787,7 +14787,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1102">
@@ -14800,7 +14800,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1103">
@@ -14878,7 +14878,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1109">
@@ -14904,7 +14904,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1111">
@@ -14917,7 +14917,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1112">
@@ -14930,7 +14930,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1113">
@@ -14995,7 +14995,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1118">
@@ -15151,7 +15151,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1130">
@@ -15177,7 +15177,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1132">
@@ -15229,7 +15229,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1136">
@@ -15307,7 +15307,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1142">
@@ -15520,7 +15520,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1158">
@@ -15546,7 +15546,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1160">
@@ -15572,7 +15572,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1162">
@@ -15585,7 +15585,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1163">
@@ -15611,7 +15611,7 @@
     <row r="1165">
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1165">
@@ -15650,7 +15650,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1168">
@@ -15790,7 +15790,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1178">
@@ -15855,7 +15855,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1183">
@@ -15933,7 +15933,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1189">
@@ -16011,7 +16011,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1195">
@@ -16050,7 +16050,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1198">
@@ -16076,7 +16076,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1200">
@@ -16089,7 +16089,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1201">
@@ -16455,7 +16455,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1228">
@@ -16764,7 +16764,7 @@
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1251">
@@ -16790,7 +16790,7 @@
     <row r="1253">
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1253">
@@ -16836,7 +16836,7 @@
         <v>31</v>
       </c>
       <c r="D1256">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="1257">
@@ -16855,7 +16855,7 @@
     <row r="1258">
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1258">
@@ -16959,7 +16959,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1266">
@@ -17011,7 +17011,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1270">
@@ -17024,7 +17024,7 @@
     <row r="1271">
       <c r="B1271" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1271">
@@ -17037,7 +17037,7 @@
     <row r="1272">
       <c r="B1272" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1272">
@@ -17076,7 +17076,7 @@
     <row r="1275">
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1275">
@@ -17154,7 +17154,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1281">
@@ -17167,7 +17167,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1282">
@@ -17284,7 +17284,7 @@
     <row r="1291">
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1291">
@@ -17323,7 +17323,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1294">
@@ -17588,7 +17588,7 @@
     <row r="1314">
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1314">
@@ -17627,7 +17627,7 @@
     <row r="1317">
       <c r="B1317" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1317">
@@ -17770,7 +17770,7 @@
     <row r="1328">
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1328">
@@ -17939,7 +17939,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1341">
@@ -18134,7 +18134,7 @@
     <row r="1356">
       <c r="B1356" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1356">
@@ -18147,7 +18147,7 @@
     <row r="1357">
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1357">
@@ -18199,7 +18199,7 @@
     <row r="1361">
       <c r="B1361" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1361">
@@ -18212,7 +18212,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1362">
@@ -18225,7 +18225,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1363">
@@ -18329,7 +18329,7 @@
     <row r="1371">
       <c r="B1371" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1371">
@@ -18381,7 +18381,7 @@
     <row r="1375">
       <c r="B1375" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1375">
@@ -18446,7 +18446,7 @@
     <row r="1380">
       <c r="B1380" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1380">
@@ -18485,7 +18485,7 @@
     <row r="1383">
       <c r="B1383" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1383">
@@ -18524,7 +18524,7 @@
     <row r="1386">
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1386">
@@ -18550,7 +18550,7 @@
     <row r="1388">
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1388">
@@ -18641,7 +18641,7 @@
     <row r="1395">
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1395">
@@ -18693,7 +18693,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1399">
@@ -18706,7 +18706,7 @@
     <row r="1400">
       <c r="B1400" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1400">
@@ -18758,7 +18758,7 @@
     <row r="1404">
       <c r="B1404" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1404">
@@ -18875,7 +18875,7 @@
     <row r="1413">
       <c r="B1413" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1413">
@@ -18966,7 +18966,7 @@
     <row r="1420">
       <c r="B1420" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1420">
@@ -19168,7 +19168,7 @@
         <v>31</v>
       </c>
       <c r="D1435">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="1436">
@@ -19317,7 +19317,7 @@
     <row r="1447">
       <c r="B1447" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1447">
@@ -19363,7 +19363,7 @@
         <v>31</v>
       </c>
       <c r="D1450">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="1451">
@@ -19447,7 +19447,7 @@
     <row r="1457">
       <c r="B1457" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1457">
@@ -19460,7 +19460,7 @@
     <row r="1458">
       <c r="B1458" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1458">
@@ -19678,7 +19678,7 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1474">
@@ -19704,7 +19704,7 @@
     <row r="1476">
       <c r="B1476" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1476">
@@ -19769,7 +19769,7 @@
     <row r="1481">
       <c r="B1481" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1481">
@@ -19816,41 +19816,6 @@
       </c>
       <c r="D1484">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1488">
-      <c r="A1488" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
